--- a/system.xlsx
+++ b/system.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ros2_robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ros1_robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12725B36-8635-42AE-89A2-BFC2E8A14E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F30965-71D4-43D6-A6DB-87CF57CD57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B164696A-A641-4B7C-AB48-6FD2FD773484}"/>
   </bookViews>
@@ -3145,7 +3145,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ROS2</a:t>
+            <a:t>ROS1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
@@ -5379,7 +5379,7 @@
   <dimension ref="C6:BG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE9" sqref="BE9"/>
+      <selection activeCell="BF10" sqref="BF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
